--- a/19th Nov Batch - Current/joins.xlsx
+++ b/19th Nov Batch - Current/joins.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DS WorkFlow\Data Is Good Class Files\Batches\2023-Classes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DS WorkFlow\Data Is Good Class Files\Batches\2023-Classes\19th Nov Batch - Current\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{368C9267-E8B2-4395-90DF-BF2615B18F01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74499573-F1AD-4A65-9D90-A152BBC125F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="47">
   <si>
     <t>Table 1 - Login Info</t>
   </si>
@@ -130,16 +131,67 @@
   </si>
   <si>
     <t>POR</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Age</t>
+  </si>
+  <si>
+    <t>Salary</t>
+  </si>
+  <si>
+    <t>Harry</t>
+  </si>
+  <si>
+    <t>Department</t>
+  </si>
+  <si>
+    <t>Sales</t>
+  </si>
+  <si>
+    <t>emp_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q1. Get me all the data of individuals working in the sales department based on their salary and if the previous employees salary is more than the next person's salary </t>
+  </si>
+  <si>
+    <t>Month</t>
+  </si>
+  <si>
+    <t>January</t>
+  </si>
+  <si>
+    <t>February</t>
+  </si>
+  <si>
+    <t>March</t>
+  </si>
+  <si>
+    <t>April</t>
+  </si>
+  <si>
+    <t>May</t>
+  </si>
+  <si>
+    <t>Q2. Find out if Harry's salary is increasing or decreasing month on month ?</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -153,7 +205,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -161,11 +213,63 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -173,6 +277,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -455,7 +575,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A4:J29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A25" workbookViewId="0">
       <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
@@ -784,4 +904,290 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5785C958-E434-4886-A3BC-E018AB08C86B}">
+  <dimension ref="A1:K14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="6.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="3.90625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.90625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.90625" customWidth="1"/>
+    <col min="6" max="6" width="17.36328125" customWidth="1"/>
+    <col min="11" max="11" width="61.1796875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A1" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A2" s="8">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" s="3">
+        <v>23</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F2" s="3">
+        <v>12000</v>
+      </c>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A3" s="8">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" s="3">
+        <v>23</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F3" s="3">
+        <v>15000</v>
+      </c>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A4" s="8">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" s="3">
+        <v>23</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F4" s="3">
+        <v>18000</v>
+      </c>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A5" s="8">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" s="3">
+        <v>23</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" s="3">
+        <v>16000</v>
+      </c>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A6" s="8">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" s="3">
+        <v>23</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="F6" s="3">
+        <v>19000</v>
+      </c>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A7" s="8"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A8" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A9" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="7"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A10" s="8"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A11" s="8"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A12" s="8"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A13" s="8"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A14" s="8"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A8:K8"/>
+    <mergeCell ref="A9:K9"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>